--- a/data/JAM/10017.xlsx
+++ b/data/JAM/10017.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="format" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="combined" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="30">
   <si>
     <t xml:space="preserve">exp</t>
   </si>
@@ -99,6 +100,18 @@
   <si>
     <t xml:space="preserve">NC</t>
   </si>
+  <si>
+    <t xml:space="preserve">F2(R=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sys_u</t>
+  </si>
 </sst>
 </file>
 
@@ -107,7 +120,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -158,6 +171,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +222,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -226,6 +247,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -245,15 +270,15 @@
   </sheetPr>
   <dimension ref="A1:U255"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A255"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="16" min="1" style="1" width="9.54081632653061"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="9.54081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="1" width="9.54081632653061"/>
+    <col collapsed="false" hidden="false" max="16" min="1" style="1" width="9.81122448979592"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="9.81122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="1" width="9.81122448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18110,4 +18135,6111 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L160"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.36575</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.00643</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.00679</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.38165</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.00671</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.00708</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.36092</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.00606</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.00721</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.3836</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.00644</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.00766</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.3742</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.00686</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.00622</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.39517</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.00724</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.00656</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.3604</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.00597</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.00608</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.38663</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.00651</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.3536</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.00437</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.00461</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.36055</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.00446</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.00469</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.35702</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.00463</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.00476</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.36655</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.00475</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.00488</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.34834</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.00489</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.00428</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.36055</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.00506</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.00443</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.35627</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.00466</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.00324</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.36425</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.00476</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.00333</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.36119</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.00392</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.00353</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.37191</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.00404</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.00364</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.3501</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.00416</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.00291</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.36414</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.00433</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.00303</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.36758</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.00737</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.00518</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.37969</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.00761</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.00535</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.35901</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.00803</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.37547</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.0084</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.00459</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.33013</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.00504</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.00381</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.33304</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.00508</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.00385</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.34016</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.00544</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.00397</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.34403</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.00402</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.33475</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.00498</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.00386</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.33974</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.00391</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.33123</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.00554</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.00364</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.33773</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.00565</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.00371</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.3378</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.00632</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.00355</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.34631</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.00648</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.00364</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.33493</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.00434</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.00281</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.33812</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.00438</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.00282</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.34013</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.00457</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.00324</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.34444</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.00463</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.00329</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.3272</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.00419</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.00234</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.33278</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.00426</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.00237</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.32015</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.00421</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0.00227</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.3278</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0.00431</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.00232</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0.00825</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.00391</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.3337</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0.00837</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.00398</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.32609</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0.00818</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.00365</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.33244</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0.00834</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.00372</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.32622</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.00861</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0.00365</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.33497</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.00884</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.00374</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.31362</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.00991</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.32518</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0.01028</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.00364</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.31451</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.00599</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.00369</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.31578</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0.00601</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0.00371</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.31298</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.00605</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0.00355</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.31458</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0.00608</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.00357</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.30061</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.00544</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0.00334</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.30259</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0.00548</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.00338</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.30601</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.00612</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0.30863</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0.00617</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.00346</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.30947</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0.00668</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0.00348</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.31282</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0.00675</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0.00352</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.29923</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.00375</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.00274</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0.30169</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0.00378</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0.00275</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.29883</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.00407</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0.00234</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.30175</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0.00411</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0.00236</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.30541</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.00465</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0.00218</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0.30764</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0.00468</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.30445</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.00369</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0.00197</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0.30751</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0.00373</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.00199</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.29533</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0.00345</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0.00145</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0.29904</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0.00349</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0.00149</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.2966</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0.00133</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0.30168</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0.00349</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0.00137</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.31237</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.00922</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0.00333</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0.31585</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0.00932</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0.00336</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.28775</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0.00632</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0.00154</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0.29215</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>0.00642</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0.00158</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.2909</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.00671</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0.29697</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>0.00685</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0.00173</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.27761</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0.00562</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0.27821</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>0.00563</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.28678</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.00594</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0.00331</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0.28755</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0.00596</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0.00331</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.27833</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0.00535</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0.00307</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0.27928</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>0.00537</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>0.00307</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.27099</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0.0056</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0.00293</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0.27217</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>0.00562</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>0.00294</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.27198</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0.00615</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0.27346</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>0.00618</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>0.00301</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.26953</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0.00556</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0.00303</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0.27142</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>0.0056</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>0.00305</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.26596</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0.00621</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0.00279</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0.2684</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>0.00627</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>0.00282</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.26906</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0.00347</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0.00128</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0.27095</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>0.00349</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.26196</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>0.00334</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0.00137</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0.2644</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>0.00337</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>0.00139</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.26515</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0.00311</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0.00142</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0.26675</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>0.00313</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>0.00144</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.26491</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0.00305</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0.00145</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0.26706</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0.00308</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>0.00145</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.25915</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0.00161</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0.26203</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>0.00313</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.24923</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>0.00349</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0.00102</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>0.25251</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0.00354</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0.00102</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.24968</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>0.00597</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>0.00135</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>0.25211</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>0.00603</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>0.00135</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.25033</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0.00645</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0.00109</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0.25361</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>0.00653</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>0.00111</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.24686</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>0.00699</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>0.00118</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>0.25124</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>0.00711</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>0.00121</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.25851</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>0.00631</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>0.00291</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>0.25894</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0.00632</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>0.00291</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.24795</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>0.00543</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>0.00319</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>0.24846</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>0.00544</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>0.00319</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.23909</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>0.00569</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>0.00262</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>0.2397</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>0.00263</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.23758</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>0.00624</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0.00282</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>0.23833</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>0.00626</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>0.00282</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.23279</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>0.00551</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>0.00242</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>0.23372</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>0.00553</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>0.00244</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.2345</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>0.00436</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>0.00137</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>0.23571</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>0.00438</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>0.00137</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.23886</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>0.00306</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>0.00135</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>0.23997</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>0.00307</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>0.00135</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.23258</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>0.00305</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>0.00113</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>0.23397</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>0.00307</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>0.00114</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.2206</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>0.00266</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>0.22177</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>0.00267</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.22277</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>0.00266</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>0.00087</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>0.22432</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>0.00267</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>0.00088</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.22205</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>0.00303</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>0.22336</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>0.00305</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.21609</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>0.00295</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>0.21766</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>0.00297</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.22351</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>0.00369</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>0.00118</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>0.22559</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>0.00372</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.20662</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>0.00367</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>0.00152</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>0.20918</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>0.00372</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>0.00154</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.21105</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>0.00652</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>0.00092</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>0.21299</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>0.00658</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>0.00094</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.2138</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>0.00863</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>0.21647</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>0.00874</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>0.00081</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.19842</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>0.00918</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>0.00081</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>0.20187</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>0.00934</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>0.00083</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.1829</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>0.00423</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>0.00236</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>0.18309</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>0.00423</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>0.00236</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.18873</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>0.00387</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>0.00241</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>0.18897</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>0.00387</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>0.00241</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0.17893</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>0.00398</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>0.00191</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>0.17921</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>0.00399</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <v>0.00191</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.17382</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>0.00416</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>0.00197</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>0.17414</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>0.00417</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <v>0.00197</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0.18531</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>0.00393</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>0.00204</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>0.18573</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>0.00394</v>
+      </c>
+      <c r="H78" s="0" t="n">
+        <v>0.00204</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>0.17836</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>0.00288</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>0.00132</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>0.17887</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>0.00289</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <v>0.00132</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>0.17729</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>0.00268</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>0.00109</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>0.17794</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>0.00269</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>0.00109</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.17803</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>0.00203</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>0.00095</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>0.17863</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>0.00204</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>0.00097</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.17081</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>0.00189</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>0.00074</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>0.17134</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>0.00074</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>0.17085</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>0.00177</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>0.00099</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>0.1715</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>0.00178</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>0.00099</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>0.16732</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>0.00178</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>0.00076</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>0.16813</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>0.00179</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <v>0.00076</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.16457</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>0.00179</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>0.00087</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>0.16549</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <v>0.00087</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.16165</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>0.00208</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>0.00078</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>0.16244</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>0.00209</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <v>0.00078</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>0.15936</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>0.00246</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>0.16033</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>0.00247</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <v>0.00102</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.15969</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>0.00255</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>0.00073</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>0.16099</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>0.00257</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <v>0.00073</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.15057</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>0.00272</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>0.00057</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>0.15219</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>0.00275</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <v>0.00057</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.15741</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>0.00572</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0.00064</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>0.1587</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>0.00577</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.14745</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>0.00582</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>0.00061</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>0.14921</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>0.00589</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <v>0.00062</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>0.12068</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>0.00403</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>0.00236</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>0.12077</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>0.00403</v>
+      </c>
+      <c r="H92" s="0" t="n">
+        <v>0.00236</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.11853</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>0.00364</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>0.00218</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>0.11864</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>0.00364</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <v>0.00218</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>0.12108</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>0.00388</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>0.00204</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>0.12121</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>0.00388</v>
+      </c>
+      <c r="H94" s="0" t="n">
+        <v>0.00204</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.11283</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>0.00402</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>0.00194</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>0.11297</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>0.00402</v>
+      </c>
+      <c r="H95" s="0" t="n">
+        <v>0.00194</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.11759</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>0.00367</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>0.00171</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>0.11777</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <v>0.00368</v>
+      </c>
+      <c r="H96" s="0" t="n">
+        <v>0.00171</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.10949</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>0.00246</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>0.00111</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>0.10969</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>0.00246</v>
+      </c>
+      <c r="H97" s="0" t="n">
+        <v>0.00111</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.10915</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>0.00231</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>0.00104</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>0.1094</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <v>0.00232</v>
+      </c>
+      <c r="H98" s="0" t="n">
+        <v>0.00104</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.10785</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>0.00176</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>0.00106</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>0.10807</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <v>0.00176</v>
+      </c>
+      <c r="H99" s="0" t="n">
+        <v>0.00107</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.10638</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>0.00197</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>0.00097</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>0.10665</v>
+      </c>
+      <c r="G100" s="0" t="n">
+        <v>0.00197</v>
+      </c>
+      <c r="H100" s="0" t="n">
+        <v>0.00097</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.10466</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>0.00154</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>0.00099</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>0.10488</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>0.00154</v>
+      </c>
+      <c r="H101" s="0" t="n">
+        <v>0.00099</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.10172</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>0.00153</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>0.10201</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>0.00154</v>
+      </c>
+      <c r="H102" s="0" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.10302</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>0.00153</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>0.00078</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>0.10335</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>0.00154</v>
+      </c>
+      <c r="H103" s="0" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>0.09925</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>0.00159</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>0.00068</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>0.09967</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <v>0.00068</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.09781</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>0.00061</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>0.09833</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>0.00191</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>0.00062</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L105" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.09539</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>0.00217</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>0.00061</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>0.0958</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>0.00218</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <v>0.00061</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L106" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.09319</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>0.00226</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>0.00052</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>0.09372</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>0.00227</v>
+      </c>
+      <c r="H107" s="0" t="n">
+        <v>0.00054</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L107" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.09295</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>0.00227</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>0.00054</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>0.09366</v>
+      </c>
+      <c r="G108" s="0" t="n">
+        <v>0.00229</v>
+      </c>
+      <c r="H108" s="0" t="n">
+        <v>0.00054</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L108" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.08773</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>0.00485</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>0.00048</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>0.08823</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>0.00488</v>
+      </c>
+      <c r="H109" s="0" t="n">
+        <v>0.00048</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L109" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0.08977</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>0.00052</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>0.09061</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>0.00464</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <v>0.00052</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L110" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.05869</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>0.00241</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>0.00268</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>0.05873</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>0.00241</v>
+      </c>
+      <c r="H111" s="0" t="n">
+        <v>0.00268</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L111" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.05714</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>0.00256</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>0.00229</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>0.05719</v>
+      </c>
+      <c r="G112" s="0" t="n">
+        <v>0.00256</v>
+      </c>
+      <c r="H112" s="0" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>0.06287</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>0.00303</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>0.00206</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>0.06293</v>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>0.00303</v>
+      </c>
+      <c r="H113" s="0" t="n">
+        <v>0.00206</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>0.0592</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>0.00264</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>0.00177</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>0.05927</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>0.00264</v>
+      </c>
+      <c r="H114" s="0" t="n">
+        <v>0.00177</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>0.05595</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>0.00147</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>0.05603</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="H115" s="0" t="n">
+        <v>0.00147</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>0.05904</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>0.00172</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>0.05914</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>0.00172</v>
+      </c>
+      <c r="H116" s="0" t="n">
+        <v>0.00132</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>0.05542</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>0.00128</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>0.00149</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>0.0555</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>0.00128</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <v>0.00149</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L117" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>0.05424</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>0.00144</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>0.00125</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>0.05434</v>
+      </c>
+      <c r="G118" s="0" t="n">
+        <v>0.00144</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <v>0.00125</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>0.05392</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>0.00128</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>0.05401</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>0.00111</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L119" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>0.05353</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>0.00114</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>0.00111</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>0.05363</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>0.00114</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <v>0.00111</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L120" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>0.05301</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>0.00114</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>0.00088</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>0.05314</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>0.00114</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L121" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>0.05178</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>0.00076</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>0.05192</v>
+      </c>
+      <c r="G122" s="0" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="H122" s="0" t="n">
+        <v>0.00076</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L122" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>0.05248</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>0.00132</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>0.00068</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>0.05267</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>0.00132</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>0.00068</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L123" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>0.04811</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>0.00142</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>0.00057</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>0.04833</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>0.00143</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <v>0.00057</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>0.0504</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>0.00176</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>0.00057</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>0.05057</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>0.00177</v>
+      </c>
+      <c r="H125" s="0" t="n">
+        <v>0.00057</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L125" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>0.04865</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>0.00175</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>0.00048</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>0.04886</v>
+      </c>
+      <c r="G126" s="0" t="n">
+        <v>0.00176</v>
+      </c>
+      <c r="H126" s="0" t="n">
+        <v>0.00048</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K126" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L126" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>0.04489</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>0.00184</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>0.00042</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>0.04519</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>0.00185</v>
+      </c>
+      <c r="H127" s="0" t="n">
+        <v>0.00042</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L127" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>0.0393</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>0.00312</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>0.03951</v>
+      </c>
+      <c r="G128" s="0" t="n">
+        <v>0.00314</v>
+      </c>
+      <c r="H128" s="0" t="n">
+        <v>0.00042</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L128" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>0.04154</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>0.00459</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>0.00036</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>0.04192</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>0.00463</v>
+      </c>
+      <c r="H129" s="0" t="n">
+        <v>0.00036</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L129" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>0.02807</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>0.00152</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>0.02809</v>
+      </c>
+      <c r="G130" s="0" t="n">
+        <v>0.00152</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L130" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>0.02869</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>0.00176</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>0.00284</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>0.02872</v>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>0.00176</v>
+      </c>
+      <c r="H131" s="0" t="n">
+        <v>0.00284</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L131" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>0.02673</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>0.00151</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>0.00241</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>0.02676</v>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>0.00151</v>
+      </c>
+      <c r="H132" s="0" t="n">
+        <v>0.00241</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K132" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L132" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>0.02861</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>0.00183</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>0.02864</v>
+      </c>
+      <c r="G133" s="0" t="n">
+        <v>0.00183</v>
+      </c>
+      <c r="H133" s="0" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J133" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K133" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L133" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>0.0237</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>0.00159</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>0.00154</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>0.02373</v>
+      </c>
+      <c r="G134" s="0" t="n">
+        <v>0.00159</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <v>0.00156</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J134" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K134" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L134" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>0.02494</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>0.00075</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>0.02496</v>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>0.00076</v>
+      </c>
+      <c r="H135" s="0" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J135" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K135" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L135" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>0.02526</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>0.00087</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>0.00152</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>0.02529</v>
+      </c>
+      <c r="G136" s="0" t="n">
+        <v>0.00087</v>
+      </c>
+      <c r="H136" s="0" t="n">
+        <v>0.00152</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J136" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L136" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>0.02382</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>0.00067</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>0.00151</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>0.02384</v>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>0.00067</v>
+      </c>
+      <c r="H137" s="0" t="n">
+        <v>0.00152</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J137" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K137" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L137" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>0.0247</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>0.00137</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>0.02474</v>
+      </c>
+      <c r="G138" s="0" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="H138" s="0" t="n">
+        <v>0.00137</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J138" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L138" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>0.02343</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>0.00069</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>0.00107</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>0.02346</v>
+      </c>
+      <c r="G139" s="0" t="n">
+        <v>0.00069</v>
+      </c>
+      <c r="H139" s="0" t="n">
+        <v>0.00107</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J139" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K139" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L139" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>0.02224</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>0.00074</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>0.00081</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>0.02228</v>
+      </c>
+      <c r="G140" s="0" t="n">
+        <v>0.00074</v>
+      </c>
+      <c r="H140" s="0" t="n">
+        <v>0.00081</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J140" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L140" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>0.02278</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>0.00083</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>0.00071</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>0.02283</v>
+      </c>
+      <c r="G141" s="0" t="n">
+        <v>0.00083</v>
+      </c>
+      <c r="H141" s="0" t="n">
+        <v>0.00071</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J141" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K141" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L141" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>0.02076</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>0.00091</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>0.00054</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>0.02083</v>
+      </c>
+      <c r="G142" s="0" t="n">
+        <v>0.00092</v>
+      </c>
+      <c r="H142" s="0" t="n">
+        <v>0.00054</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J142" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L142" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>0.02218</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>0.00103</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>0.02226</v>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>0.00103</v>
+      </c>
+      <c r="H143" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J143" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K143" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L143" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>0.01993</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>0.00042</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>0.00111</v>
+      </c>
+      <c r="H144" s="0" t="n">
+        <v>0.00042</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J144" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L144" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>0.01965</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>0.00126</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>0.00035</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>0.01974</v>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>0.00127</v>
+      </c>
+      <c r="H145" s="0" t="n">
+        <v>0.00035</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J145" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K145" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L145" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>0.01814</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>0.00238</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>0.00033</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>0.0182</v>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>0.00239</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <v>0.00035</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J146" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K146" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L146" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>0.01605</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>0.00263</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>0.00024</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>0.01614</v>
+      </c>
+      <c r="G147" s="0" t="n">
+        <v>0.00264</v>
+      </c>
+      <c r="H147" s="0" t="n">
+        <v>0.00024</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J147" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K147" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L147" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>0.00867</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>0.00054</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>0.00107</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>0.00868</v>
+      </c>
+      <c r="G148" s="0" t="n">
+        <v>0.00054</v>
+      </c>
+      <c r="H148" s="0" t="n">
+        <v>0.00107</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J148" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L148" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>0.00984</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>0.00073</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>0.00107</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>0.00986</v>
+      </c>
+      <c r="G149" s="0" t="n">
+        <v>0.00073</v>
+      </c>
+      <c r="H149" s="0" t="n">
+        <v>0.00107</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J149" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K149" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L149" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>0.00894</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>0.00038</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>0.00128</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>0.00895</v>
+      </c>
+      <c r="G150" s="0" t="n">
+        <v>0.00039</v>
+      </c>
+      <c r="H150" s="0" t="n">
+        <v>0.00128</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J150" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K150" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L150" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>0.00916</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>0.00042</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>0.00118</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>0.00917</v>
+      </c>
+      <c r="G151" s="0" t="n">
+        <v>0.00042</v>
+      </c>
+      <c r="H151" s="0" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J151" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K151" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L151" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B152" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>0.00852</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>0.00042</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>0.00109</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>0.00854</v>
+      </c>
+      <c r="G152" s="0" t="n">
+        <v>0.00042</v>
+      </c>
+      <c r="H152" s="0" t="n">
+        <v>0.00109</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J152" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K152" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L152" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B153" s="0" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>0.00792</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>0.00044</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>0.00794</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>0.00044</v>
+      </c>
+      <c r="H153" s="0" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J153" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K153" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L153" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B154" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>0.00794</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>0.00048</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>0.00796</v>
+      </c>
+      <c r="G154" s="0" t="n">
+        <v>0.00049</v>
+      </c>
+      <c r="H154" s="0" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J154" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K154" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L154" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B155" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="C155" s="0" t="n">
+        <v>0.00747</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>0.00051</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>0.00062</v>
+      </c>
+      <c r="F155" s="0" t="n">
+        <v>0.00749</v>
+      </c>
+      <c r="G155" s="0" t="n">
+        <v>0.00051</v>
+      </c>
+      <c r="H155" s="0" t="n">
+        <v>0.00062</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J155" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K155" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L155" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B156" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="C156" s="0" t="n">
+        <v>0.00798</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>0.00059</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>0.00054</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G156" s="0" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <v>0.00054</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J156" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K156" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L156" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B157" s="0" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>0.00657</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>0.00063</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>0.00045</v>
+      </c>
+      <c r="F157" s="0" t="n">
+        <v>0.00658</v>
+      </c>
+      <c r="G157" s="0" t="n">
+        <v>0.00063</v>
+      </c>
+      <c r="H157" s="0" t="n">
+        <v>0.00045</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J157" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K157" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L157" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>0.00631</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>0.00067</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>0.00035</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>0.00634</v>
+      </c>
+      <c r="G158" s="0" t="n">
+        <v>0.00068</v>
+      </c>
+      <c r="H158" s="0" t="n">
+        <v>0.00035</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J158" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K158" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L158" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B159" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>0.00541</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>0.00116</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>0.00028</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>0.00542</v>
+      </c>
+      <c r="G159" s="0" t="n">
+        <v>0.00116</v>
+      </c>
+      <c r="H159" s="0" t="n">
+        <v>0.00028</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J159" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K159" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L159" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B160" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>0.00639</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>0.00172</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>0.00021</v>
+      </c>
+      <c r="F160" s="0" t="n">
+        <v>0.00642</v>
+      </c>
+      <c r="G160" s="0" t="n">
+        <v>0.00173</v>
+      </c>
+      <c r="H160" s="0" t="n">
+        <v>0.00021</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J160" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K160" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L160" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>